--- a/LensDataCenter.xlsx
+++ b/LensDataCenter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365kumoh-my.sharepoint.com/personal/mnbv8m_office_kumoh_ac_kr/Documents/PythonProject/RayTraceProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="8_{CFBA3150-E612-4178-A967-1A43FFDC4424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABE61156-D4B1-4B9D-B56D-52666E50ADB3}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="8_{CFBA3150-E612-4178-A967-1A43FFDC4424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{261E4BAE-DCB4-4F72-BF15-EE16DFD20B80}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C364063E-6B39-49D4-920D-2DEB2CDC9585}"/>
   </bookViews>
@@ -136,22 +136,28 @@
     <t>Refract</t>
   </si>
   <si>
-    <t>HLAK12_CDGM</t>
-  </si>
-  <si>
-    <t>HZF52_CDGM</t>
-  </si>
-  <si>
-    <t>HFK61_CDGM</t>
-  </si>
-  <si>
-    <t>DFK61_CDGM</t>
-  </si>
-  <si>
-    <t>HK9L_CDGM</t>
-  </si>
-  <si>
-    <t>HZF5_CDGM</t>
+    <t>H-ZF5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H-LAK12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H-ZF52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H-FK61</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D-FK61</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H-K9L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -565,7 +571,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -637,7 +643,7 @@
         <v>6.23</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
         <v>24</v>
@@ -674,7 +680,7 @@
         <v>1.5</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G5" t="s">
         <v>24</v>
@@ -728,7 +734,7 @@
         <v>4.24</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G8" t="s">
         <v>24</v>
@@ -748,7 +754,7 @@
         <v>4.3499999999999996</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G9" t="s">
         <v>24</v>
@@ -785,7 +791,7 @@
         <v>6.25</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G11" t="s">
         <v>24</v>
@@ -822,7 +828,7 @@
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G13" t="s">
         <v>24</v>
@@ -859,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s">
         <v>24</v>
@@ -875,9 +881,6 @@
       <c r="D16" s="6">
         <v>1E+18</v>
       </c>
-      <c r="E16">
-        <v>0.70674716859677</v>
-      </c>
       <c r="G16" t="s">
         <v>24</v>
       </c>
@@ -891,9 +894,6 @@
       </c>
       <c r="D17" s="6">
         <v>1E+18</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
       </c>
       <c r="G17" t="s">
         <v>24</v>
@@ -907,65 +907,137 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA9D75DA-16A8-44F5-A739-24E889DB7C50}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="4">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4">
+        <v>9</v>
+      </c>
+      <c r="E1" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>-0.242644252062892</v>
+      </c>
+      <c r="C2">
+        <v>1.16574810758703</v>
+      </c>
+      <c r="D2">
+        <v>-32.6871611581374</v>
+      </c>
+      <c r="E2">
+        <v>-1.66283451075335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B3" s="6">
+        <v>9.2353300452113901E-5</v>
+      </c>
+      <c r="C3" s="6">
+        <v>3.1119636887310703E-5</v>
+      </c>
+      <c r="D3">
+        <v>3.1876628758135299E-4</v>
+      </c>
+      <c r="E3" s="6">
+        <v>5.7738441479685602E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B4" s="6">
+        <v>-2.07876325974417E-7</v>
+      </c>
+      <c r="C4" s="6">
+        <v>-8.8202447293904193E-6</v>
+      </c>
+      <c r="D4" s="6">
+        <v>-3.7144397491455199E-6</v>
+      </c>
+      <c r="E4" s="6">
+        <v>2.2013757849642001E-6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B5" s="6">
+        <v>8.1983366445270395E-9</v>
+      </c>
+      <c r="C5" s="6">
+        <v>-4.1673736451937197E-8</v>
+      </c>
+      <c r="D5" s="6">
+        <v>7.3707248006904204E-8</v>
+      </c>
+      <c r="E5" s="6">
+        <v>-3.7096931464801401E-8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B6" s="6">
+        <v>-8.6212096685244601E-11</v>
+      </c>
+      <c r="C6" s="6">
+        <v>4.70931405893907E-10</v>
+      </c>
+      <c r="D6" s="6">
+        <v>-2.5910204299984799E-10</v>
+      </c>
+      <c r="E6" s="6">
+        <v>8.4888220703721802E-10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>

--- a/LensDataCenter.xlsx
+++ b/LensDataCenter.xlsx
@@ -2,19 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365kumoh-my.sharepoint.com/personal/mnbv8m_office_kumoh_ac_kr/Documents/PythonProject/RayTraceProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="8_{CFBA3150-E612-4178-A967-1A43FFDC4424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{261E4BAE-DCB4-4F72-BF15-EE16DFD20B80}"/>
+  <xr:revisionPtr revIDLastSave="132" documentId="8_{CFBA3150-E612-4178-A967-1A43FFDC4424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC75A2B5-B26C-44D9-86AC-4E68475DDE25}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C364063E-6B39-49D4-920D-2DEB2CDC9585}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C364063E-6B39-49D4-920D-2DEB2CDC9585}"/>
   </bookViews>
   <sheets>
     <sheet name="RDN" sheetId="1" r:id="rId1"/>
-    <sheet name="SurfaceProperties" sheetId="2" r:id="rId2"/>
+    <sheet name="SystemData" sheetId="3" r:id="rId2"/>
+    <sheet name="SurfaceProperties" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
   <si>
     <t>Surface#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,13 +159,96 @@
   <si>
     <t>H-K9L</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pupil Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image F/number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pupil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wavelength</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plot Color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vignetting</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>X Height</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y Height</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weight</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Color</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>+Y</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>-Y</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>+X</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>-X</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fields</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,13 +264,82 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF33CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000099"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -232,7 +385,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -253,6 +406,73 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -260,6 +480,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF00FF"/>
+      <color rgb="FF000099"/>
+      <color rgb="FF008000"/>
+      <color rgb="FF006600"/>
+      <color rgb="FF33CCFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -568,10 +797,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE68137-7E37-470D-AFFF-67C0BE719713}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -906,7 +1136,274 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C01192CB-5110-4B15-B62D-C605A5356AA0}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:M8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.875" customWidth="1"/>
+    <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="9.875" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="9.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="7">
+        <v>10</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="20">
+        <v>0</v>
+      </c>
+      <c r="G3" s="20">
+        <v>0</v>
+      </c>
+      <c r="H3" s="20">
+        <v>1</v>
+      </c>
+      <c r="I3" s="21"/>
+      <c r="J3" s="20">
+        <v>0</v>
+      </c>
+      <c r="K3" s="20">
+        <v>0</v>
+      </c>
+      <c r="L3" s="20">
+        <v>0</v>
+      </c>
+      <c r="M3" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="7">
+        <v>27</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="20">
+        <v>0</v>
+      </c>
+      <c r="G4" s="20">
+        <v>1.8374999999999999</v>
+      </c>
+      <c r="H4" s="20">
+        <v>1</v>
+      </c>
+      <c r="I4" s="22"/>
+      <c r="J4" s="20">
+        <v>0</v>
+      </c>
+      <c r="K4" s="20">
+        <v>0</v>
+      </c>
+      <c r="L4" s="20">
+        <v>0</v>
+      </c>
+      <c r="M4" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="7">
+        <v>29</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="20">
+        <v>0</v>
+      </c>
+      <c r="G5" s="20">
+        <v>3.15</v>
+      </c>
+      <c r="H5" s="20">
+        <v>1</v>
+      </c>
+      <c r="I5" s="23"/>
+      <c r="J5" s="20">
+        <v>0</v>
+      </c>
+      <c r="K5" s="20">
+        <v>0</v>
+      </c>
+      <c r="L5" s="20">
+        <v>0</v>
+      </c>
+      <c r="M5" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="7">
+        <v>23</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="20">
+        <v>0</v>
+      </c>
+      <c r="G6" s="20">
+        <v>4.2</v>
+      </c>
+      <c r="H6" s="20">
+        <v>1</v>
+      </c>
+      <c r="I6" s="24"/>
+      <c r="J6" s="20">
+        <v>0</v>
+      </c>
+      <c r="K6" s="20">
+        <v>0</v>
+      </c>
+      <c r="L6" s="20">
+        <v>0</v>
+      </c>
+      <c r="M6" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="7">
+        <v>11</v>
+      </c>
+      <c r="E7" s="18"/>
+      <c r="F7" s="20">
+        <v>0</v>
+      </c>
+      <c r="G7" s="20">
+        <v>5.25</v>
+      </c>
+      <c r="H7" s="20">
+        <v>1</v>
+      </c>
+      <c r="I7" s="25"/>
+      <c r="J7" s="20">
+        <v>0</v>
+      </c>
+      <c r="K7" s="20">
+        <v>0</v>
+      </c>
+      <c r="L7" s="20">
+        <v>0</v>
+      </c>
+      <c r="M7" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E8" s="19"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA9D75DA-16A8-44F5-A739-24E889DB7C50}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/LensDataCenter.xlsx
+++ b/LensDataCenter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365kumoh-my.sharepoint.com/personal/mnbv8m_office_kumoh_ac_kr/Documents/PythonProject/RayTraceProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="132" documentId="8_{CFBA3150-E612-4178-A967-1A43FFDC4424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC75A2B5-B26C-44D9-86AC-4E68475DDE25}"/>
+  <xr:revisionPtr revIDLastSave="136" documentId="8_{CFBA3150-E612-4178-A967-1A43FFDC4424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9D3A1A6-10A0-4138-B253-345E1A9C71ED}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C364063E-6B39-49D4-920D-2DEB2CDC9585}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C364063E-6B39-49D4-920D-2DEB2CDC9585}"/>
   </bookViews>
   <sheets>
     <sheet name="RDN" sheetId="1" r:id="rId1"/>
@@ -280,7 +280,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -301,30 +301,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF33CCFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF008000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000099"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF00FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -338,6 +314,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,7 +373,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -410,69 +398,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1141,7 +1123,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1158,27 +1140,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="10" t="s">
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10" t="s">
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -1193,31 +1175,31 @@
       <c r="D2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="10" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1234,27 +1216,27 @@
       <c r="D3" s="7">
         <v>10</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="20">
-        <v>0</v>
-      </c>
-      <c r="G3" s="20">
-        <v>0</v>
-      </c>
-      <c r="H3" s="20">
+      <c r="E3" s="9"/>
+      <c r="F3" s="12">
+        <v>0</v>
+      </c>
+      <c r="G3" s="12">
+        <v>0</v>
+      </c>
+      <c r="H3" s="12">
         <v>1</v>
       </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="20">
-        <v>0</v>
-      </c>
-      <c r="K3" s="20">
-        <v>0</v>
-      </c>
-      <c r="L3" s="20">
-        <v>0</v>
-      </c>
-      <c r="M3" s="20">
+      <c r="I3" s="13"/>
+      <c r="J3" s="12">
+        <v>0</v>
+      </c>
+      <c r="K3" s="12">
+        <v>0</v>
+      </c>
+      <c r="L3" s="12">
+        <v>0</v>
+      </c>
+      <c r="M3" s="12">
         <v>0</v>
       </c>
     </row>
@@ -1265,27 +1247,27 @@
       <c r="D4" s="7">
         <v>27</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="20">
-        <v>0</v>
-      </c>
-      <c r="G4" s="20">
+      <c r="E4" s="20"/>
+      <c r="F4" s="12">
+        <v>0</v>
+      </c>
+      <c r="G4" s="12">
         <v>1.8374999999999999</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="12">
         <v>1</v>
       </c>
-      <c r="I4" s="22"/>
-      <c r="J4" s="20">
-        <v>0</v>
-      </c>
-      <c r="K4" s="20">
-        <v>0</v>
-      </c>
-      <c r="L4" s="20">
-        <v>0</v>
-      </c>
-      <c r="M4" s="20">
+      <c r="I4" s="14"/>
+      <c r="J4" s="12">
+        <v>0</v>
+      </c>
+      <c r="K4" s="12">
+        <v>0</v>
+      </c>
+      <c r="L4" s="12">
+        <v>0</v>
+      </c>
+      <c r="M4" s="12">
         <v>0</v>
       </c>
     </row>
@@ -1296,27 +1278,27 @@
       <c r="D5" s="7">
         <v>29</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="20">
-        <v>0</v>
-      </c>
-      <c r="G5" s="20">
+      <c r="E5" s="21"/>
+      <c r="F5" s="12">
+        <v>0</v>
+      </c>
+      <c r="G5" s="12">
         <v>3.15</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="12">
         <v>1</v>
       </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="20">
-        <v>0</v>
-      </c>
-      <c r="K5" s="20">
-        <v>0</v>
-      </c>
-      <c r="L5" s="20">
-        <v>0</v>
-      </c>
-      <c r="M5" s="20">
+      <c r="I5" s="15"/>
+      <c r="J5" s="12">
+        <v>0</v>
+      </c>
+      <c r="K5" s="12">
+        <v>0</v>
+      </c>
+      <c r="L5" s="12">
+        <v>0</v>
+      </c>
+      <c r="M5" s="12">
         <v>0</v>
       </c>
     </row>
@@ -1327,27 +1309,27 @@
       <c r="D6" s="7">
         <v>23</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="20">
-        <v>0</v>
-      </c>
-      <c r="G6" s="20">
+      <c r="E6" s="22"/>
+      <c r="F6" s="12">
+        <v>0</v>
+      </c>
+      <c r="G6" s="12">
         <v>4.2</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="12">
         <v>1</v>
       </c>
-      <c r="I6" s="24"/>
-      <c r="J6" s="20">
-        <v>0</v>
-      </c>
-      <c r="K6" s="20">
-        <v>0</v>
-      </c>
-      <c r="L6" s="20">
-        <v>0</v>
-      </c>
-      <c r="M6" s="20">
+      <c r="I6" s="16"/>
+      <c r="J6" s="12">
+        <v>0</v>
+      </c>
+      <c r="K6" s="12">
+        <v>0</v>
+      </c>
+      <c r="L6" s="12">
+        <v>0</v>
+      </c>
+      <c r="M6" s="12">
         <v>0</v>
       </c>
     </row>
@@ -1358,36 +1340,35 @@
       <c r="D7" s="7">
         <v>11</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="20">
-        <v>0</v>
-      </c>
-      <c r="G7" s="20">
+      <c r="E7" s="23"/>
+      <c r="F7" s="12">
+        <v>0</v>
+      </c>
+      <c r="G7" s="12">
         <v>5.25</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="12">
         <v>1</v>
       </c>
-      <c r="I7" s="25"/>
-      <c r="J7" s="20">
-        <v>0</v>
-      </c>
-      <c r="K7" s="20">
-        <v>0</v>
-      </c>
-      <c r="L7" s="20">
-        <v>0</v>
-      </c>
-      <c r="M7" s="20">
+      <c r="I7" s="17"/>
+      <c r="J7" s="12">
+        <v>0</v>
+      </c>
+      <c r="K7" s="12">
+        <v>0</v>
+      </c>
+      <c r="L7" s="12">
+        <v>0</v>
+      </c>
+      <c r="M7" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E8" s="19"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/LensDataCenter.xlsx
+++ b/LensDataCenter.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365kumoh-my.sharepoint.com/personal/mnbv8m_office_kumoh_ac_kr/Documents/PythonProject/RayTraceProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="136" documentId="8_{CFBA3150-E612-4178-A967-1A43FFDC4424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9D3A1A6-10A0-4138-B253-345E1A9C71ED}"/>
+  <xr:revisionPtr revIDLastSave="192" documentId="8_{CFBA3150-E612-4178-A967-1A43FFDC4424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F5E5B7D-19D3-4E64-AC30-5E5288BD3AA1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C364063E-6B39-49D4-920D-2DEB2CDC9585}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C364063E-6B39-49D4-920D-2DEB2CDC9585}"/>
   </bookViews>
   <sheets>
-    <sheet name="RDN" sheetId="1" r:id="rId1"/>
-    <sheet name="SystemData" sheetId="3" r:id="rId2"/>
-    <sheet name="SurfaceProperties" sheetId="2" r:id="rId3"/>
+    <sheet name="x-RDN" sheetId="1" r:id="rId1"/>
+    <sheet name="RDN" sheetId="4" r:id="rId2"/>
+    <sheet name="SystemData" sheetId="3" r:id="rId3"/>
+    <sheet name="SurfaceProperties" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="51">
   <si>
     <t>Surface#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -248,7 +249,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,6 +277,22 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -307,18 +324,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -329,8 +334,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -367,13 +382,99 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -395,69 +496,143 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="보통" xfId="2" builtinId="28"/>
+    <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -783,7 +958,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1118,12 +1293,147 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB9E94E6-15E7-4363-BFE6-86BAB5B30D54}">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="10.75" customWidth="1"/>
+    <col min="6" max="6" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1E+19</v>
+      </c>
+      <c r="E2">
+        <v>100000000000000</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4">
+        <v>-100</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1E+19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D7" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D17" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C01192CB-5110-4B15-B62D-C605A5356AA0}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1140,235 +1450,217 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="19" t="s">
+      <c r="D1" s="36"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19" t="s">
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="43"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="29" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="7">
-        <v>2.4</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="12">
+        <v>4</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="11">
         <v>10</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="12">
-        <v>0</v>
-      </c>
-      <c r="G3" s="12">
-        <v>0</v>
-      </c>
-      <c r="H3" s="12">
+      <c r="E3" s="13"/>
+      <c r="F3" s="21">
+        <v>0</v>
+      </c>
+      <c r="G3" s="22">
+        <v>0</v>
+      </c>
+      <c r="H3" s="22">
         <v>1</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="12">
-        <v>0</v>
-      </c>
-      <c r="K3" s="12">
-        <v>0</v>
-      </c>
-      <c r="L3" s="12">
-        <v>0</v>
-      </c>
-      <c r="M3" s="12">
+      <c r="I3" s="23"/>
+      <c r="J3" s="21">
+        <v>0</v>
+      </c>
+      <c r="K3" s="22">
+        <v>0</v>
+      </c>
+      <c r="L3" s="22">
+        <v>0</v>
+      </c>
+      <c r="M3" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="11">
         <v>27</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="12">
-        <v>0</v>
-      </c>
-      <c r="G4" s="12">
-        <v>1.8374999999999999</v>
-      </c>
-      <c r="H4" s="12">
+      <c r="E4" s="14"/>
+      <c r="F4" s="21">
+        <v>0</v>
+      </c>
+      <c r="G4" s="22">
+        <v>5</v>
+      </c>
+      <c r="H4" s="22">
         <v>1</v>
       </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="12">
-        <v>0</v>
-      </c>
-      <c r="K4" s="12">
-        <v>0</v>
-      </c>
-      <c r="L4" s="12">
-        <v>0</v>
-      </c>
-      <c r="M4" s="12">
+      <c r="I4" s="24"/>
+      <c r="J4" s="21">
+        <v>0</v>
+      </c>
+      <c r="K4" s="22">
+        <v>0</v>
+      </c>
+      <c r="L4" s="22">
+        <v>0</v>
+      </c>
+      <c r="M4" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="11">
         <v>29</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="12">
-        <v>0</v>
-      </c>
-      <c r="G5" s="12">
-        <v>3.15</v>
-      </c>
-      <c r="H5" s="12">
-        <v>1</v>
-      </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="12">
-        <v>0</v>
-      </c>
-      <c r="K5" s="12">
-        <v>0</v>
-      </c>
-      <c r="L5" s="12">
-        <v>0</v>
-      </c>
-      <c r="M5" s="12">
+      <c r="E5" s="15"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="21">
+        <v>0</v>
+      </c>
+      <c r="K5" s="22">
+        <v>0</v>
+      </c>
+      <c r="L5" s="22">
+        <v>0</v>
+      </c>
+      <c r="M5" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="11">
         <v>23</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="12">
-        <v>0</v>
-      </c>
-      <c r="G6" s="12">
-        <v>4.2</v>
-      </c>
-      <c r="H6" s="12">
-        <v>1</v>
-      </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="12">
-        <v>0</v>
-      </c>
-      <c r="K6" s="12">
-        <v>0</v>
-      </c>
-      <c r="L6" s="12">
-        <v>0</v>
-      </c>
-      <c r="M6" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C7" s="7" t="s">
+      <c r="E6" s="16"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="21">
+        <v>0</v>
+      </c>
+      <c r="K6" s="22">
+        <v>0</v>
+      </c>
+      <c r="L6" s="22">
+        <v>0</v>
+      </c>
+      <c r="M6" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="12">
         <v>11</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="12">
-        <v>0</v>
-      </c>
-      <c r="G7" s="12">
-        <v>5.25</v>
-      </c>
-      <c r="H7" s="12">
-        <v>1</v>
-      </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="12">
-        <v>0</v>
-      </c>
-      <c r="K7" s="12">
-        <v>0</v>
-      </c>
-      <c r="L7" s="12">
-        <v>0</v>
-      </c>
-      <c r="M7" s="12">
+      <c r="E7" s="17"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="25">
+        <v>0</v>
+      </c>
+      <c r="K7" s="26">
+        <v>0</v>
+      </c>
+      <c r="L7" s="26">
+        <v>0</v>
+      </c>
+      <c r="M7" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1382,13 +1674,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA9D75DA-16A8-44F5-A739-24E889DB7C50}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/LensDataCenter.xlsx
+++ b/LensDataCenter.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365kumoh-my.sharepoint.com/personal/mnbv8m_office_kumoh_ac_kr/Documents/PythonProject/RayTraceProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="192" documentId="8_{CFBA3150-E612-4178-A967-1A43FFDC4424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F5E5B7D-19D3-4E64-AC30-5E5288BD3AA1}"/>
+  <xr:revisionPtr revIDLastSave="203" documentId="8_{CFBA3150-E612-4178-A967-1A43FFDC4424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7331A7C4-DAA2-4843-9EB7-E1BD1835B99A}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C364063E-6B39-49D4-920D-2DEB2CDC9585}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C364063E-6B39-49D4-920D-2DEB2CDC9585}"/>
   </bookViews>
   <sheets>
-    <sheet name="x-RDN" sheetId="1" r:id="rId1"/>
-    <sheet name="RDN" sheetId="4" r:id="rId2"/>
-    <sheet name="SystemData" sheetId="3" r:id="rId3"/>
-    <sheet name="SurfaceProperties" sheetId="2" r:id="rId4"/>
+    <sheet name="RDN" sheetId="1" r:id="rId1"/>
+    <sheet name="SystemData" sheetId="3" r:id="rId2"/>
+    <sheet name="SurfaceProperties" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
   <si>
     <t>Surface#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -249,7 +248,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,8 +295,32 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF00FF"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -342,6 +365,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00FF"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -474,7 +509,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -586,10 +621,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -626,6 +657,18 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -957,7 +1000,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
@@ -1293,147 +1336,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB9E94E6-15E7-4363-BFE6-86BAB5B30D54}">
-  <dimension ref="A1:H17"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="10.75" customWidth="1"/>
-    <col min="6" max="6" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="6">
-        <v>1E+19</v>
-      </c>
-      <c r="E2">
-        <v>100000000000000</v>
-      </c>
-      <c r="G2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3">
-        <v>100</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4">
-        <v>-100</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="6">
-        <v>1E+19</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D7" s="6"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D17" s="6"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C01192CB-5110-4B15-B62D-C605A5356AA0}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1450,27 +1358,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="38" t="s">
+      <c r="D1" s="35"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="41" t="s">
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="43"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="42"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -1518,7 +1426,7 @@
         <v>33</v>
       </c>
       <c r="B3" s="12">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>15</v>
@@ -1562,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="22">
-        <v>5</v>
+        <v>1.8374999999999999</v>
       </c>
       <c r="H4" s="22">
         <v>1</v>
@@ -1590,9 +1498,11 @@
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="21"/>
-      <c r="G5" s="22"/>
+      <c r="G5" s="22">
+        <v>3.15</v>
+      </c>
       <c r="H5" s="22"/>
-      <c r="I5" s="20"/>
+      <c r="I5" s="43"/>
       <c r="J5" s="21">
         <v>0</v>
       </c>
@@ -1615,9 +1525,11 @@
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="21"/>
-      <c r="G6" s="22"/>
+      <c r="G6" s="22">
+        <v>4.2</v>
+      </c>
       <c r="H6" s="22"/>
-      <c r="I6" s="20"/>
+      <c r="I6" s="44"/>
       <c r="J6" s="21">
         <v>0</v>
       </c>
@@ -1640,9 +1552,11 @@
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="25"/>
-      <c r="G7" s="26"/>
+      <c r="G7" s="26">
+        <v>5.25</v>
+      </c>
       <c r="H7" s="26"/>
-      <c r="I7" s="32"/>
+      <c r="I7" s="45"/>
       <c r="J7" s="25">
         <v>0</v>
       </c>
@@ -1674,7 +1588,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA9D75DA-16A8-44F5-A739-24E889DB7C50}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E11"/>
